--- a/OutputLatih.xlsx
+++ b/OutputLatih.xlsx
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8729096989966555</v>
+        <v>0.8695652173913043</v>
       </c>
     </row>
     <row r="3">
